--- a/excel/ArissaTeste.xlsx
+++ b/excel/ArissaTeste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariss\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariss\Downloads\TestedeCompetencia\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA2AFE9-4B07-4F60-96BD-109242F99CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E4DBFD-EDF6-4555-B4FF-E195D849DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <sheet name="LISTA DINÂMICA" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ListaDinamica">'LISTA DINÂMICA'!$A$2:$A$7</definedName>
-    <definedName name="Países_">'LISTA DINÂMICA'!$A$2:$A$7</definedName>
+    <definedName name="lista">OFFSET('LISTA DINÂMICA'!$A$2, 0, 0, COUNTA('LISTA DINÂMICA'!$A$2:$A$100), 1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="327">
   <si>
     <r>
       <rPr>
@@ -1603,25 +1602,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1649,6 +1643,11 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2822,7 +2821,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0484CD32-C18E-47A7-8111-4C4428A4A9D4}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0484CD32-C18E-47A7-8111-4C4428A4A9D4}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2930,7 +2929,7 @@
     <dataField name="Contagem de Nome" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -3509,10 +3508,10 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -31689,20 +31688,20 @@
     <mergeCell ref="F12:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="C32:H32 C33:I38">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>C32="Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:I38">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$I32="Entregue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C32="Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$C32="Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31737,7 +31736,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>324</v>
       </c>
       <c r="B3" t="s">
@@ -31745,154 +31744,154 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22">
         <v>72</v>
       </c>
     </row>
@@ -38684,52 +38683,43 @@
       <c r="A5" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="C5:C11" ca="1">OFFSET(A2,0,0,COUNTA(A2:A7,1))</f>
-        <v>Brasil</v>
+      <c r="C5" s="45" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="41" t="str">
-        <f ca="1"/>
-        <v>Argentina</v>
+      <c r="C6" s="41" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="41" t="str">
-        <f ca="1"/>
-        <v>França</v>
+      <c r="C7" s="41" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="41" t="str">
-        <f ca="1"/>
-        <v>Holanda</v>
+      <c r="C8" s="41" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="41" t="str">
-        <f ca="1"/>
-        <v>Senegal</v>
+      <c r="C9" s="41" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="41" t="str">
-        <f ca="1"/>
-        <v>Alemanha</v>
+      <c r="C10" s="41" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="41">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="C11" s="50"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -39713,8 +39703,8 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>Países_</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C5:C11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>lista</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
